--- a/bitbucket-github/bitbucket-to-github.xlsx
+++ b/bitbucket-github/bitbucket-to-github.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsharma\Desktop\version control excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\bitbucket-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF34FE4-4780-40B8-9417-8149D7223AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B50EBE-4685-45F1-B8F2-DC1AAB015AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C8411E7-0AF8-48CA-BD6E-19F0263529A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C8411E7-0AF8-48CA-BD6E-19F0263529A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>workspace_id</t>
   </si>
   <si>
-    <t>varun160799</t>
-  </si>
-  <si>
     <t>repo_name_to_import</t>
   </si>
   <si>
@@ -50,13 +47,25 @@
     <t>sr</t>
   </si>
   <si>
-    <t>varun1699sharma</t>
-  </si>
-  <si>
-    <t>dev-private</t>
-  </si>
-  <si>
-    <t>you-dont-need-javascript</t>
+    <t>anilgoudasb06</t>
+  </si>
+  <si>
+    <t>almatasks</t>
+  </si>
+  <si>
+    <t>app-n-pak</t>
+  </si>
+  <si>
+    <t>casa-build-utils</t>
+  </si>
+  <si>
+    <t>casaplotserver</t>
+  </si>
+  <si>
+    <t>casashell</t>
+  </si>
+  <si>
+    <t>anilsb06</t>
   </si>
 </sst>
 </file>
@@ -417,61 +426,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0349532D-B4A8-415D-9B10-4CFED506220E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="5" max="5" width="50.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
